--- a/Sprint 1/Sprint_Backlog/Sprint 1 Test Plan.xlsx
+++ b/Sprint 1/Sprint_Backlog/Sprint 1 Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikol\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Desktop\Novadapt\XAMPP\htdocs\AC31007\Sprint 1\Sprint_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D46B95A-675B-4148-9C7E-BF59C9FDDE95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE5FCEF-A1DB-4CEC-A5CD-1297E4574B91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Test Plan" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>TESTER COMMENTS</t>
   </si>
@@ -195,12 +195,36 @@
   <si>
     <t>On the website, given researcher can only see their own questionnaires</t>
   </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>A questionnaire is displayed on the website.</t>
+  </si>
+  <si>
+    <t>No comment.</t>
+  </si>
+  <si>
+    <t>Form contains a variety of inputs, allowing for a variety of quesitons to be asked in different formats.</t>
+  </si>
+  <si>
+    <t>Multipile responses are submitted and processed appropriately when submitted.</t>
+  </si>
+  <si>
+    <t>Only one option is selected, but the user can change their choice if they want.</t>
+  </si>
+  <si>
+    <t>Input validation has not worked on at the moment.</t>
+  </si>
+  <si>
+    <t>Input has to be validated.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,6 +294,13 @@
       <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -391,7 +422,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -448,10 +479,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -459,6 +486,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -734,15 +768,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,7 +792,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,15 +812,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -798,15 +832,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,7 +860,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
@@ -874,7 +908,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,8 +933,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1047750</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -966,8 +1000,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1047750</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1033,8 +1067,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1047750</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1100,8 +1134,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1047750</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1167,8 +1201,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1047750</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1234,8 +1268,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1047750</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1301,8 +1335,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1047750</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2944,14 +2978,19 @@
   </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="400050" cy="247650"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1143" name="Check Box 119" hidden="1">
@@ -2960,7 +2999,7 @@
                   <a14:compatExt spid="_x0000_s1143"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E07A1D-FA7E-4A4C-8E69-07ACF5F1C8C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3000,20 +3039,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="400050" cy="247650"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1144" name="Check Box 120" hidden="1">
@@ -3022,7 +3066,7 @@
                   <a14:compatExt spid="_x0000_s1144"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB9C71F-9B95-4E57-8E97-72DD889CE769}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3062,20 +3106,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="400050" cy="247650"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1145" name="Check Box 121" hidden="1">
@@ -3084,7 +3133,7 @@
                   <a14:compatExt spid="_x0000_s1145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5203771B-8D0F-4DF4-83CC-B6D74A35949B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3124,20 +3173,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="400050" cy="247650"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1146" name="Check Box 122" hidden="1">
@@ -3146,7 +3200,7 @@
                   <a14:compatExt spid="_x0000_s1146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC6A6D3-139E-4298-99BD-64059ED7BDA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3186,20 +3240,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="400050" cy="247650"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>276225</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1147" name="Check Box 123" hidden="1">
@@ -3208,7 +3267,7 @@
                   <a14:compatExt spid="_x0000_s1147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125D48C0-C793-4695-8A4D-3C49BFFA0D6D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3248,20 +3307,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="400050" cy="247650"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1148" name="Check Box 124" hidden="1">
@@ -3270,7 +3334,7 @@
                   <a14:compatExt spid="_x0000_s1148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B1636C-88F3-401D-B74E-D8F357EA4079}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3310,20 +3374,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="400050" cy="247650"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1149" name="Check Box 125" hidden="1">
@@ -3332,7 +3401,7 @@
                   <a14:compatExt spid="_x0000_s1149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C0023A-7A8B-4B74-8FF6-B5A566DEFCB2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3372,20 +3441,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="400050" cy="247650"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1150" name="Check Box 126" hidden="1">
@@ -3394,7 +3468,7 @@
                   <a14:compatExt spid="_x0000_s1150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE95955-B211-4BDB-BD8D-F613ED163FC4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3434,20 +3508,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="400050" cy="247650"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1151" name="Check Box 127" hidden="1">
@@ -3456,7 +3535,7 @@
                   <a14:compatExt spid="_x0000_s1151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501D2025-1899-4FB2-90C8-AB8C192ED68A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3496,20 +3575,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="400050" cy="247650"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1152" name="Check Box 128" hidden="1">
@@ -3518,7 +3602,7 @@
                   <a14:compatExt spid="_x0000_s1152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54482C22-69A5-4DB5-AEDB-AE60C191CFCC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3558,7 +3642,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3893,9 +3977,9 @@
   </sheetPr>
   <dimension ref="B1:X71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3948,7 +4032,7 @@
       <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="13"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3995,7 +4079,7 @@
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="2:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -4036,7 +4120,7 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="2:24" ht="27" x14ac:dyDescent="0.25">
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>3</v>
       </c>
       <c r="C5" s="14">
@@ -4048,10 +4132,16 @@
       <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4069,7 +4159,7 @@
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="2:24" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>3</v>
       </c>
       <c r="C6" s="14">
@@ -4081,10 +4171,16 @@
       <c r="E6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4102,7 +4198,7 @@
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="2:24" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>3</v>
       </c>
       <c r="C7" s="14">
@@ -4114,10 +4210,16 @@
       <c r="E7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4135,7 +4237,7 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="2:24" ht="54" x14ac:dyDescent="0.25">
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <v>3</v>
       </c>
       <c r="C8" s="14">
@@ -4147,10 +4249,16 @@
       <c r="E8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -4167,8 +4275,8 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26">
+    <row r="9" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24">
         <v>3</v>
       </c>
       <c r="C9" s="14">
@@ -4180,10 +4288,16 @@
       <c r="E9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -4201,7 +4315,7 @@
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="2:24" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>4</v>
       </c>
       <c r="C10" s="14">
@@ -4234,7 +4348,7 @@
       <c r="X10" s="1"/>
     </row>
     <row r="11" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>4</v>
       </c>
       <c r="C11" s="14">
@@ -4267,7 +4381,7 @@
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>4</v>
       </c>
       <c r="C12" s="14">
@@ -4300,7 +4414,7 @@
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26">
+      <c r="B13" s="24">
         <v>4</v>
       </c>
       <c r="C13" s="14">
@@ -4333,7 +4447,7 @@
       <c r="X13" s="1"/>
     </row>
     <row r="14" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26">
+      <c r="B14" s="24">
         <v>9</v>
       </c>
       <c r="C14" s="14">
@@ -4366,7 +4480,7 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26">
+      <c r="B15" s="24">
         <v>9</v>
       </c>
       <c r="C15" s="14">
@@ -4399,7 +4513,7 @@
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <v>9</v>
       </c>
       <c r="C16" s="14">
@@ -4432,7 +4546,7 @@
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="2:24" ht="27" x14ac:dyDescent="0.25">
-      <c r="B17" s="26">
+      <c r="B17" s="24">
         <v>9</v>
       </c>
       <c r="C17" s="14">
@@ -4465,7 +4579,7 @@
       <c r="X17" s="1"/>
     </row>
     <row r="18" spans="2:24" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <v>9</v>
       </c>
       <c r="C18" s="14">
@@ -4498,7 +4612,7 @@
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="2:24" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <v>9</v>
       </c>
       <c r="C19" s="14">
@@ -4531,7 +4645,7 @@
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="2:24" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="26">
+      <c r="B20" s="24">
         <v>9</v>
       </c>
       <c r="C20" s="14">
@@ -4564,7 +4678,7 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
+      <c r="B21" s="24">
         <v>9</v>
       </c>
       <c r="C21" s="14">
@@ -4597,7 +4711,7 @@
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="2:24" ht="54" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <v>9</v>
       </c>
       <c r="C22" s="14">
@@ -4630,7 +4744,7 @@
       <c r="X22" s="1"/>
     </row>
     <row r="23" spans="2:24" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="26">
+      <c r="B23" s="24">
         <v>9</v>
       </c>
       <c r="C23" s="14">
@@ -4663,7 +4777,7 @@
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="2:24" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>11</v>
       </c>
       <c r="C24" s="14">
@@ -4696,7 +4810,7 @@
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <v>11</v>
       </c>
       <c r="C25" s="14">
@@ -4729,7 +4843,7 @@
       <c r="X25" s="1"/>
     </row>
     <row r="26" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -4754,7 +4868,7 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -4779,7 +4893,7 @@
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -4804,7 +4918,7 @@
       <c r="X28" s="1"/>
     </row>
     <row r="29" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -4829,7 +4943,7 @@
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -4854,7 +4968,7 @@
       <c r="X30" s="1"/>
     </row>
     <row r="31" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -4879,7 +4993,7 @@
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -4904,7 +5018,7 @@
       <c r="X32" s="1"/>
     </row>
     <row r="33" spans="2:24" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -4954,16 +5068,16 @@
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="2:24" s="18" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
@@ -7154,7 +7268,7 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -7187,9 +7301,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1/Sprint_Backlog/Sprint 1 Test Plan.xlsx
+++ b/Sprint 1/Sprint_Backlog/Sprint 1 Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Desktop\Novadapt\XAMPP\htdocs\AC31007\Sprint 1\Sprint_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE5FCEF-A1DB-4CEC-A5CD-1297E4574B91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10720C5-0182-4F87-BD58-B0F86A95F89E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>TESTER COMMENTS</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>Input has to be validated.</t>
+  </si>
+  <si>
+    <t>Questions shown in the website are dynamic with the database.</t>
+  </si>
+  <si>
+    <t>Questions are fetched from the database using their unique ID.</t>
+  </si>
+  <si>
+    <t>Only responses relevant for a particular question are shown.</t>
   </si>
 </sst>
 </file>
@@ -784,11 +793,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,7 +837,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -852,7 +861,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -904,7 +913,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3978,8 +3987,8 @@
   <dimension ref="B1:X71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4327,10 +4336,16 @@
       <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -4360,10 +4375,16 @@
       <c r="E11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -4393,10 +4414,16 @@
       <c r="E12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -7268,7 +7295,7 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A2:B23"/>
+  <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -7301,6 +7328,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="b">
         <v>1</v>
@@ -7323,6 +7355,11 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Sprint 1/Sprint_Backlog/Sprint 1 Test Plan.xlsx
+++ b/Sprint 1/Sprint_Backlog/Sprint 1 Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Desktop\Novadapt\XAMPP\htdocs\AC31007\Sprint 1\Sprint_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10720C5-0182-4F87-BD58-B0F86A95F89E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EC63B9-9D42-44C9-B3F1-1415B9161584}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>TESTER COMMENTS</t>
   </si>
@@ -228,6 +228,21 @@
   <si>
     <t>Only responses relevant for a particular question are shown.</t>
   </si>
+  <si>
+    <t>When a questionnaire is submitted, the data is inserted into the database.</t>
+  </si>
+  <si>
+    <t>PK/FK are present, and all fields have a relevant type.</t>
+  </si>
+  <si>
+    <t>Questions in the database match the ones on the questionnaire.</t>
+  </si>
+  <si>
+    <t>Researcher information is stored using a unique ID.</t>
+  </si>
+  <si>
+    <t>Not currently implemented</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +327,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF40B14B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +452,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -502,6 +523,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -777,15 +801,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -793,15 +817,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -821,15 +845,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -837,19 +861,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,7 +885,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -869,7 +893,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,11 +937,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="'-Disclaimer-'!$A$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3987,8 +4011,8 @@
   <dimension ref="B1:X71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4297,14 +4321,14 @@
       <c r="E9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="28" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="1"/>
@@ -4453,10 +4477,16 @@
       <c r="E13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -4486,10 +4516,16 @@
       <c r="E14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="H14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -4519,10 +4555,16 @@
       <c r="E15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -4552,10 +4594,16 @@
       <c r="E16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -7330,12 +7378,22 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -7345,22 +7403,27 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1/Sprint_Backlog/Sprint 1 Test Plan.xlsx
+++ b/Sprint 1/Sprint_Backlog/Sprint 1 Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Desktop\Novadapt\XAMPP\htdocs\AC31007\Sprint 1\Sprint_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EC63B9-9D42-44C9-B3F1-1415B9161584}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EDDE52-A11E-4C3E-8EDE-D4CC22D559DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>TESTER COMMENTS</t>
   </si>
@@ -241,7 +241,19 @@
     <t>Researcher information is stored using a unique ID.</t>
   </si>
   <si>
-    <t>Not currently implemented</t>
+    <t>View exists in the database</t>
+  </si>
+  <si>
+    <t>Not currently implemented.</t>
+  </si>
+  <si>
+    <t>Stored procedure exists and works as expected</t>
+  </si>
+  <si>
+    <t>Design is consistent throughought different pages on the website.</t>
+  </si>
+  <si>
+    <t>Stored procedure will retrieve the relevant option ID for each question that has options that can be selected.</t>
   </si>
 </sst>
 </file>
@@ -452,7 +464,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -526,6 +538,9 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -4011,8 +4026,8 @@
   <dimension ref="B1:X71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4594,15 +4609,15 @@
       <c r="E16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>70</v>
+      <c r="I16" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4633,10 +4648,16 @@
       <c r="E17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4666,10 +4687,16 @@
       <c r="E18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4699,10 +4726,16 @@
       <c r="E19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -4732,10 +4765,16 @@
       <c r="E20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -4897,10 +4936,16 @@
       <c r="E25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="G25" s="15"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>

--- a/Sprint 1/Sprint_Backlog/Sprint 1 Test Plan.xlsx
+++ b/Sprint 1/Sprint_Backlog/Sprint 1 Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Desktop\Novadapt\XAMPP\htdocs\AC31007\Sprint 1\Sprint_Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EDDE52-A11E-4C3E-8EDE-D4CC22D559DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92ED628-564F-4E02-A587-F2A1E6C426ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>TESTER COMMENTS</t>
   </si>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>Stored procedure will retrieve the relevant option ID for each question that has options that can be selected.</t>
+  </si>
+  <si>
+    <t>Works as exepected.</t>
+  </si>
+  <si>
+    <t>Works as expected.</t>
+  </si>
+  <si>
+    <t>Website is responsive</t>
+  </si>
+  <si>
+    <t>Website will shrink/enlarge in size depending on the screen resolution.</t>
   </si>
 </sst>
 </file>
@@ -4026,8 +4038,8 @@
   <dimension ref="B1:X71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4804,10 +4816,16 @@
       <c r="E21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -4837,10 +4855,16 @@
       <c r="E22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="G22" s="15"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -4870,10 +4894,16 @@
       <c r="E23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="G23" s="15"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -4903,10 +4933,16 @@
       <c r="E24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
